--- a/Example_data_format.xlsx
+++ b/Example_data_format.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Weed indices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Naveen_spectral_similarity_index\Weed_Indices\New_Excel_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="22320" windowHeight="13170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Replication1" sheetId="1" r:id="rId1"/>
+    <sheet name="Replication2" sheetId="2" r:id="rId2"/>
+    <sheet name="Replication3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="27">
   <si>
     <t>T1</t>
   </si>
@@ -68,58 +70,58 @@
     <t>Yield (t/ha)</t>
   </si>
   <si>
+    <t>Indices</t>
+  </si>
+  <si>
+    <t>Relative dry weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commelina benghalensis </t>
+  </si>
+  <si>
+    <t>Main crop</t>
+  </si>
+  <si>
+    <t>Fresh weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digera arvensis </t>
+  </si>
+  <si>
+    <t>Intercrop</t>
+  </si>
+  <si>
+    <t>Dry weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parthenium hysterophorus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyperus rotundus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amaranthus viridis </t>
+  </si>
+  <si>
+    <t>Trianthema portulacastrum</t>
+  </si>
+  <si>
+    <t>Weed smothering efficiency</t>
+  </si>
+  <si>
+    <t>Fresh weight to dry weight ratio</t>
+  </si>
+  <si>
     <t>Dry weight (g)</t>
   </si>
   <si>
-    <t xml:space="preserve">Commelina benghalensis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digera arvensis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parthenium hysterophorus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus rotundus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amaranthus viridis </t>
-  </si>
-  <si>
-    <t>Trianthema portulacastrum</t>
-  </si>
-  <si>
-    <t>Main crop</t>
-  </si>
-  <si>
-    <t>Intercrop</t>
-  </si>
-  <si>
     <t>Weight (g)</t>
-  </si>
-  <si>
-    <t>Fresh weight</t>
-  </si>
-  <si>
-    <t>Dry weight</t>
-  </si>
-  <si>
-    <t>Fresh weight to dry weight ratio</t>
-  </si>
-  <si>
-    <t>Weed smothering efficiency</t>
-  </si>
-  <si>
-    <t>Relative dry weight</t>
-  </si>
-  <si>
-    <t>Indices</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -469,7 +471,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,16 +493,16 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -520,7 +522,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>5</v>
@@ -532,7 +534,7 @@
         <v>5</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -549,19 +551,19 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1">
         <v>5</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L3" s="1">
         <v>10</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P3" s="1">
         <v>10</v>
@@ -581,19 +583,19 @@
         <v>4.8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1">
         <v>4</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L4" s="1">
         <v>5</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P4" s="1">
         <v>5</v>
@@ -613,7 +615,7 @@
         <v>4.5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1">
         <v>4.5</v>
@@ -633,7 +635,7 @@
         <v>5.5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H6" s="1">
         <v>5.5</v>
@@ -653,7 +655,7 @@
         <v>4.2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H7" s="1">
         <v>4.2</v>
@@ -673,7 +675,7 @@
         <v>5.8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H8" s="1">
         <v>5.8</v>
@@ -691,6 +693,476 @@
       </c>
       <c r="D9" s="1">
         <v>3.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="1">
+        <v>9</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>78</v>
+      </c>
+      <c r="C9" s="1">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="1">
+        <v>10</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="1">
+        <v>5</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>79</v>
+      </c>
+      <c r="C9" s="1">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.8</v>
       </c>
     </row>
   </sheetData>
